--- a/工作计划/2022/202207.xlsx
+++ b/工作计划/2022/202207.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15920" activeTab="1"/>
+    <workbookView windowHeight="15280" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2022-06-27" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
   <si>
     <t>目标</t>
   </si>
   <si>
-    <t>MParticle Report 重构</t>
+    <t>1 MParticle Report 重构；2 指导新人；</t>
   </si>
   <si>
     <t>日期</t>
@@ -50,6 +50,9 @@
     <t>星期二</t>
   </si>
   <si>
+    <t>无法复现，已建issue跟踪</t>
+  </si>
+  <si>
     <t>指导新人进行MParticle Report 重构：API design review</t>
   </si>
   <si>
@@ -71,19 +74,28 @@
     <t>问题跟踪：MParticle Event上报到snowflakeDB的时间字段值错误，字段：eventtimestamp</t>
   </si>
   <si>
+    <t>在测试前获取并校准设备时间，已交给michelle处理。</t>
+  </si>
+  <si>
     <t>星期五</t>
   </si>
   <si>
-    <t>安排下周工作</t>
+    <t>整理Test report文档</t>
   </si>
   <si>
     <t>MParticle Report 重构：前端页面渲染</t>
   </si>
   <si>
-    <t>1 MParticle Report 重构；2 Test case Management 调研</t>
+    <t>等待联调、测试</t>
+  </si>
+  <si>
+    <t>1 MParticle Report 重构；2 Test case Management 调研；3 带新人了解Appium Junit项目</t>
   </si>
   <si>
     <t>Test case Management 调研</t>
+  </si>
+  <si>
+    <t>Test report 产品需求文档整理</t>
   </si>
 </sst>
 </file>
@@ -787,7 +799,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -824,19 +836,31 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1160,8 +1184,8 @@
   <sheetPr/>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView zoomScale="155" zoomScaleNormal="155" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E14"/>
+    <sheetView zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1170,13 +1194,14 @@
     <col min="2" max="2" width="6.890625" customWidth="1"/>
     <col min="3" max="3" width="76.609375" customWidth="1"/>
     <col min="4" max="4" width="11.9296875" customWidth="1"/>
+    <col min="5" max="5" width="46.0078125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2"/>
@@ -1201,132 +1226,158 @@
       </c>
     </row>
     <row r="3" ht="18" spans="1:5">
-      <c r="A3" s="13">
+      <c r="A3" s="17">
         <v>44739</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="14" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="14"/>
+      <c r="D3" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E3" s="15"/>
     </row>
     <row r="4" ht="18" spans="1:5">
-      <c r="A4" s="13"/>
-      <c r="B4" s="12"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="14"/>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="15"/>
     </row>
     <row r="5" ht="18" spans="1:5">
       <c r="A5" s="4">
         <v>44740</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="14" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="14"/>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="6" ht="33" spans="1:5">
-      <c r="A6" s="15"/>
-      <c r="B6" s="12"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="14"/>
+        <v>12</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="15"/>
     </row>
     <row r="7" ht="14.8" spans="1:5">
       <c r="A7" s="4">
         <v>44741</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="14"/>
+        <v>14</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="15"/>
     </row>
     <row r="8" ht="14.8" spans="1:5">
-      <c r="A8" s="15"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="10"/>
       <c r="C8" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="14"/>
+        <v>15</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="E8" s="15"/>
     </row>
     <row r="9" ht="14.8" spans="1:5">
       <c r="A9" s="4">
         <v>44742</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="14"/>
+        <v>17</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="15"/>
     </row>
     <row r="10" ht="14.8" spans="1:5">
       <c r="A10" s="8"/>
       <c r="B10" s="9"/>
       <c r="C10" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D10" s="7"/>
-      <c r="E10" s="14"/>
+      <c r="E10" s="15"/>
     </row>
     <row r="11" ht="14.8" spans="1:5">
-      <c r="A11" s="15"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="10"/>
       <c r="C11" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="14"/>
+        <v>18</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="12" ht="14.8" spans="1:5">
-      <c r="A12" s="13">
+      <c r="A12" s="17">
         <v>44743</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>18</v>
+      <c r="B12" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D12" s="7"/>
-      <c r="E12" s="14"/>
+      <c r="E12" s="15"/>
     </row>
     <row r="13" ht="14.8" spans="1:5">
-      <c r="A13" s="13"/>
-      <c r="B13" s="12"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
+        <v>15</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="19"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="13"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="20">
+        <v>0.8</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -1350,10 +1401,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScale="151" zoomScaleNormal="151" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1369,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -1394,101 +1445,112 @@
     </row>
     <row r="3" ht="18" spans="1:5">
       <c r="A3" s="4">
-        <v>44739</v>
+        <v>44746</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="14"/>
+      <c r="E3" s="15"/>
     </row>
     <row r="4" ht="18" spans="1:5">
       <c r="A4" s="8"/>
       <c r="B4" s="9"/>
       <c r="C4" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" s="7"/>
-      <c r="E4" s="14"/>
+      <c r="E4" s="15"/>
     </row>
     <row r="5" ht="18" spans="1:5">
       <c r="A5" s="8"/>
-      <c r="B5" s="10"/>
+      <c r="B5" s="9"/>
       <c r="C5" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D5" s="7"/>
-      <c r="E5" s="14"/>
+      <c r="E5" s="15"/>
     </row>
     <row r="6" ht="14.8" spans="1:5">
       <c r="A6" s="8"/>
       <c r="B6" s="10"/>
       <c r="C6" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" s="7"/>
-      <c r="E6" s="14"/>
+      <c r="E6" s="15"/>
     </row>
     <row r="7" ht="18" spans="1:5">
-      <c r="A7" s="4">
-        <v>44740</v>
-      </c>
-      <c r="B7" s="12" t="s">
+      <c r="A7" s="12">
+        <v>44747</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D7" s="7"/>
-      <c r="E7" s="14"/>
+      <c r="E7" s="15"/>
     </row>
     <row r="8" ht="18" spans="1:5">
-      <c r="A8" s="4">
-        <v>44741</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="A8" s="13"/>
+      <c r="B8" s="9"/>
       <c r="C8" s="6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D8" s="7"/>
-      <c r="E8" s="14"/>
+      <c r="E8" s="15"/>
     </row>
     <row r="9" ht="18" spans="1:5">
       <c r="A9" s="4">
-        <v>44742</v>
+        <v>44748</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D9" s="7"/>
-      <c r="E9" s="14"/>
+      <c r="E9" s="15"/>
     </row>
     <row r="10" ht="18" spans="1:5">
-      <c r="A10" s="13">
-        <v>44743</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>18</v>
+      <c r="A10" s="4">
+        <v>44749</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D10" s="7"/>
-      <c r="E10" s="14"/>
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" ht="18" spans="1:5">
+      <c r="A11" s="4">
+        <v>44750</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="B1:E1"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B7:B8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/工作计划/2022/202207.xlsx
+++ b/工作计划/2022/202207.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15280" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2022-06-27" sheetId="1" r:id="rId1"/>
@@ -104,10 +104,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -141,8 +141,84 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,31 +232,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,90 +263,23 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,19 +306,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,163 +474,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,46 +556,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -611,21 +572,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -649,150 +595,204 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1268,7 +1268,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" ht="33" spans="1:5">
+    <row r="6" ht="18" spans="1:5">
       <c r="A6" s="18"/>
       <c r="B6" s="14"/>
       <c r="C6" s="6" t="s">
@@ -1404,7 +1404,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="151" zoomScaleNormal="151" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>

--- a/工作计划/2022/202207.xlsx
+++ b/工作计划/2022/202207.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12160" activeTab="1"/>
+    <workbookView windowHeight="15920" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="2022-06-27" sheetId="1" r:id="rId1"/>
     <sheet name="2022-07-04" sheetId="2" r:id="rId2"/>
+    <sheet name="2022-07-11" sheetId="3" r:id="rId3"/>
+    <sheet name="2022-07-18" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
   <si>
     <t>目标</t>
   </si>
@@ -96,6 +98,21 @@
   </si>
   <si>
     <t>Test report 产品需求文档整理</t>
+  </si>
+  <si>
+    <t>1 挖掘需求</t>
+  </si>
+  <si>
+    <t>挖掘需求：测试脚本的管理、测试脚本的执行</t>
+  </si>
+  <si>
+    <t>1设计模式</t>
+  </si>
+  <si>
+    <t>寻找适用于测试框架的设计模式</t>
+  </si>
+  <si>
+    <t>请假</t>
   </si>
 </sst>
 </file>
@@ -103,11 +120,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -141,6 +158,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -149,6 +187,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -157,31 +226,53 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,30 +286,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,59 +301,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -306,13 +323,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -324,169 +503,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,11 +569,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,21 +644,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -635,17 +658,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -654,145 +671,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -824,6 +841,12 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -841,12 +864,6 @@
     </xf>
     <xf numFmtId="176" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1229,7 +1246,7 @@
       <c r="A3" s="17">
         <v>44739</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -1238,24 +1255,24 @@
       <c r="D3" s="7">
         <v>0.5</v>
       </c>
-      <c r="E3" s="15"/>
+      <c r="E3" s="9"/>
     </row>
     <row r="4" ht="18" spans="1:5">
       <c r="A4" s="17"/>
-      <c r="B4" s="14"/>
+      <c r="B4" s="8"/>
       <c r="C4" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="7">
         <v>1</v>
       </c>
-      <c r="E4" s="15"/>
+      <c r="E4" s="9"/>
     </row>
     <row r="5" ht="18" spans="1:5">
       <c r="A5" s="4">
         <v>44740</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -1264,20 +1281,20 @@
       <c r="D5" s="7">
         <v>1</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" ht="18" spans="1:5">
       <c r="A6" s="18"/>
-      <c r="B6" s="14"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="7">
         <v>1</v>
       </c>
-      <c r="E6" s="15"/>
+      <c r="E6" s="9"/>
     </row>
     <row r="7" ht="14.8" spans="1:5">
       <c r="A7" s="4">
@@ -1286,24 +1303,24 @@
       <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="13" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="7">
         <v>1</v>
       </c>
-      <c r="E7" s="15"/>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" ht="14.8" spans="1:5">
       <c r="A8" s="18"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="7">
         <v>0.8</v>
       </c>
-      <c r="E8" s="15"/>
+      <c r="E8" s="9"/>
     </row>
     <row r="9" ht="14.8" spans="1:5">
       <c r="A9" s="4">
@@ -1312,33 +1329,33 @@
       <c r="B9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="13" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="7">
         <v>1</v>
       </c>
-      <c r="E9" s="15"/>
+      <c r="E9" s="9"/>
     </row>
     <row r="10" ht="14.8" spans="1:5">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="11" t="s">
+      <c r="A10" s="10"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="7"/>
-      <c r="E10" s="15"/>
+      <c r="E10" s="9"/>
     </row>
     <row r="11" ht="14.8" spans="1:5">
       <c r="A11" s="18"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="7">
         <v>1</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="9" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1346,19 +1363,19 @@
       <c r="A12" s="17">
         <v>44743</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="7"/>
-      <c r="E12" s="15"/>
+      <c r="E12" s="9"/>
     </row>
     <row r="13" ht="14.8" spans="1:5">
       <c r="A13" s="17"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="11" t="s">
+      <c r="B13" s="8"/>
+      <c r="C13" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="7">
@@ -1368,7 +1385,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="17"/>
-      <c r="B14" s="14"/>
+      <c r="B14" s="8"/>
       <c r="C14" s="19" t="s">
         <v>22</v>
       </c>
@@ -1403,8 +1420,8 @@
   <sheetPr/>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="151" zoomScaleNormal="151" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView zoomScale="151" zoomScaleNormal="151" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1454,37 +1471,37 @@
         <v>14</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="15"/>
+      <c r="E3" s="9"/>
     </row>
     <row r="4" ht="18" spans="1:5">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="7"/>
-      <c r="E4" s="15"/>
+      <c r="E4" s="9"/>
     </row>
     <row r="5" ht="18" spans="1:5">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="7"/>
-      <c r="E5" s="15"/>
+      <c r="E5" s="9"/>
     </row>
     <row r="6" ht="14.8" spans="1:5">
-      <c r="A6" s="8"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="7"/>
-      <c r="E6" s="15"/>
+      <c r="E6" s="9"/>
     </row>
     <row r="7" ht="18" spans="1:5">
-      <c r="A7" s="12">
+      <c r="A7" s="14">
         <v>44747</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -1494,16 +1511,16 @@
         <v>25</v>
       </c>
       <c r="D7" s="7"/>
-      <c r="E7" s="15"/>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" ht="18" spans="1:5">
-      <c r="A8" s="13"/>
-      <c r="B8" s="9"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="6" t="s">
         <v>26</v>
       </c>
       <c r="D8" s="7"/>
-      <c r="E8" s="15"/>
+      <c r="E8" s="9"/>
     </row>
     <row r="9" ht="18" spans="1:5">
       <c r="A9" s="4">
@@ -1516,7 +1533,7 @@
         <v>25</v>
       </c>
       <c r="D9" s="7"/>
-      <c r="E9" s="15"/>
+      <c r="E9" s="9"/>
     </row>
     <row r="10" ht="18" spans="1:5">
       <c r="A10" s="4">
@@ -1529,20 +1546,20 @@
         <v>25</v>
       </c>
       <c r="D10" s="7"/>
-      <c r="E10" s="15"/>
+      <c r="E10" s="9"/>
     </row>
     <row r="11" ht="18" spans="1:5">
       <c r="A11" s="4">
         <v>44750</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D11" s="7"/>
-      <c r="E11" s="15"/>
+      <c r="E11" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1555,4 +1572,242 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView zoomScale="157" zoomScaleNormal="157" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="6.890625" customWidth="1"/>
+    <col min="3" max="3" width="76.609375" customWidth="1"/>
+    <col min="4" max="4" width="11.9296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" ht="15.2" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" ht="18" spans="1:5">
+      <c r="A3" s="4">
+        <v>44753</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" ht="18" spans="1:5">
+      <c r="A4" s="4">
+        <v>44754</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" ht="18" spans="1:5">
+      <c r="A5" s="4">
+        <v>44755</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" ht="18" spans="1:5">
+      <c r="A6" s="4">
+        <v>44756</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" ht="18" spans="1:5">
+      <c r="A7" s="4">
+        <v>44757</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="157" zoomScaleNormal="157" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="6.890625" customWidth="1"/>
+    <col min="3" max="3" width="76.609375" customWidth="1"/>
+    <col min="4" max="4" width="11.9296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" ht="15.2" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" ht="18" spans="1:5">
+      <c r="A3" s="4">
+        <v>44753</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" ht="18" spans="1:5">
+      <c r="A4" s="4">
+        <v>44754</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" ht="18" spans="1:5">
+      <c r="A5" s="4">
+        <v>44755</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" ht="18" spans="1:5">
+      <c r="A6" s="4">
+        <v>44756</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" ht="18" spans="1:5">
+      <c r="A7" s="4">
+        <v>44757</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/工作计划/2022/202207.xlsx
+++ b/工作计划/2022/202207.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15920" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12320" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="2022-06-27" sheetId="1" r:id="rId1"/>
     <sheet name="2022-07-04" sheetId="2" r:id="rId2"/>
     <sheet name="2022-07-11" sheetId="3" r:id="rId3"/>
     <sheet name="2022-07-18" sheetId="4" r:id="rId4"/>
+    <sheet name="2022-7-25" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
   <si>
     <t>目标</t>
   </si>
@@ -113,6 +114,33 @@
   </si>
   <si>
     <t>请假</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 优化UI Diff Report
+2 实时生成UI diff report， 当接收到一个case的allure测试报告，就发送Kafka信息，用来generate ui diff report。
+3 在 UI Diff Case管理页面，新增"generate ui diff report" 按钮 点击时，发送一条Kafka信息，用来重新生成report。（目的：当图库更新时，用来人工更新report）
+4 在UI Diff Case 页面，新增模块：用来展示UI比较进度。[用websocket反向通知用户] </t>
+  </si>
+  <si>
+    <t>工作任务分解</t>
+  </si>
+  <si>
+    <t>实时生成UI diff report， 当接收到一个case的allure测试报告，就发送Kafka信息，用来generate ui diff report。</t>
+  </si>
+  <si>
+    <t>https://wonder.atlassian.net/browse/QA-501</t>
+  </si>
+  <si>
+    <t>在 UI Diff Case管理页面，新增"generate ui diff report" 按钮 点击时，发送一条Kafka信息，用来重新生成report。（目的：当图库更新时，用来人工更新report）</t>
+  </si>
+  <si>
+    <t>https://wonder.atlassian.net/browse/QA-502</t>
+  </si>
+  <si>
+    <t>实时生成UI diff report测试</t>
+  </si>
+  <si>
+    <t>发布</t>
   </si>
 </sst>
 </file>
@@ -120,11 +148,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -158,6 +186,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -165,6 +201,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -174,6 +218,59 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,56 +285,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -250,29 +301,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,14 +329,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -329,49 +357,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,127 +519,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -584,6 +612,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -638,7 +675,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -657,166 +694,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -824,6 +852,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -847,6 +878,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -863,9 +897,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1218,181 +1249,181 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
     </row>
     <row r="2" ht="15.2" spans="1:5">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" ht="18" spans="1:5">
-      <c r="A3" s="17">
+      <c r="A3" s="18">
         <v>44739</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="8">
         <v>0.5</v>
       </c>
-      <c r="E3" s="9"/>
+      <c r="E3" s="10"/>
     </row>
     <row r="4" ht="18" spans="1:5">
-      <c r="A4" s="17"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="6" t="s">
+      <c r="A4" s="18"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="8">
         <v>1</v>
       </c>
-      <c r="E4" s="9"/>
+      <c r="E4" s="10"/>
     </row>
     <row r="5" ht="18" spans="1:5">
-      <c r="A5" s="4">
+      <c r="A5" s="5">
         <v>44740</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="8">
         <v>1</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" ht="18" spans="1:5">
-      <c r="A6" s="18"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="6" t="s">
+      <c r="A6" s="19"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="8">
         <v>1</v>
       </c>
-      <c r="E6" s="9"/>
+      <c r="E6" s="10"/>
     </row>
     <row r="7" ht="14.8" spans="1:5">
-      <c r="A7" s="4">
+      <c r="A7" s="5">
         <v>44741</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="8">
         <v>1</v>
       </c>
-      <c r="E7" s="9"/>
+      <c r="E7" s="10"/>
     </row>
     <row r="8" ht="14.8" spans="1:5">
-      <c r="A8" s="18"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13" t="s">
+      <c r="A8" s="19"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="8">
         <v>0.8</v>
       </c>
-      <c r="E8" s="9"/>
+      <c r="E8" s="10"/>
     </row>
     <row r="9" ht="14.8" spans="1:5">
-      <c r="A9" s="4">
+      <c r="A9" s="5">
         <v>44742</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="8">
         <v>1</v>
       </c>
-      <c r="E9" s="9"/>
+      <c r="E9" s="10"/>
     </row>
     <row r="10" ht="14.8" spans="1:5">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="13" t="s">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="9"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="10"/>
     </row>
     <row r="11" ht="14.8" spans="1:5">
-      <c r="A11" s="18"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="13" t="s">
+      <c r="A11" s="19"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="8">
         <v>1</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" ht="14.8" spans="1:5">
-      <c r="A12" s="17">
+      <c r="A12" s="18">
         <v>44743</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="9"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="10"/>
     </row>
     <row r="13" ht="14.8" spans="1:5">
-      <c r="A13" s="17"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="13" t="s">
+      <c r="A13" s="18"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="8">
         <v>1</v>
       </c>
-      <c r="E13" s="19"/>
+      <c r="E13" s="20"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="17"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="19" t="s">
+      <c r="A14" s="18"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="21">
         <v>0.8</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="20" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1436,130 +1467,130 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
     </row>
     <row r="2" ht="15.2" spans="1:5">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" ht="18" spans="1:5">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>44746</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="9"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="10"/>
     </row>
     <row r="4" ht="18" spans="1:5">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="6" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="9"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="10"/>
     </row>
     <row r="5" ht="18" spans="1:5">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="6" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="9"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="10"/>
     </row>
     <row r="6" ht="14.8" spans="1:5">
-      <c r="A6" s="10"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="13" t="s">
+      <c r="A6" s="12"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="9"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="10"/>
     </row>
     <row r="7" ht="18" spans="1:5">
-      <c r="A7" s="14">
+      <c r="A7" s="16">
         <v>44747</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="9"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="10"/>
     </row>
     <row r="8" ht="18" spans="1:5">
-      <c r="A8" s="15"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="6" t="s">
+      <c r="A8" s="17"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="9"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="10"/>
     </row>
     <row r="9" ht="18" spans="1:5">
-      <c r="A9" s="4">
+      <c r="A9" s="5">
         <v>44748</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="9"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="10"/>
     </row>
     <row r="10" ht="18" spans="1:5">
-      <c r="A10" s="4">
+      <c r="A10" s="5">
         <v>44749</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="9"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="10"/>
     </row>
     <row r="11" ht="18" spans="1:5">
-      <c r="A11" s="4">
+      <c r="A11" s="5">
         <v>44750</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="9"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1595,94 +1626,94 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
     </row>
     <row r="2" ht="15.2" spans="1:5">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" ht="18" spans="1:5">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>44753</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="9"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="10"/>
     </row>
     <row r="4" ht="18" spans="1:5">
-      <c r="A4" s="4">
+      <c r="A4" s="5">
         <v>44754</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="9"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="10"/>
     </row>
     <row r="5" ht="18" spans="1:5">
-      <c r="A5" s="4">
+      <c r="A5" s="5">
         <v>44755</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="9"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="10"/>
     </row>
     <row r="6" ht="18" spans="1:5">
-      <c r="A6" s="4">
+      <c r="A6" s="5">
         <v>44756</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="9"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="10"/>
     </row>
     <row r="7" ht="18" spans="1:5">
-      <c r="A7" s="4">
+      <c r="A7" s="5">
         <v>44757</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="9"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1698,8 +1729,8 @@
   <sheetPr/>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="157" zoomScaleNormal="157" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="4"/>
@@ -1714,94 +1745,94 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
     </row>
     <row r="2" ht="15.2" spans="1:5">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" ht="18" spans="1:5">
-      <c r="A3" s="4">
-        <v>44753</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="5">
+        <v>44760</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="9"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="10"/>
     </row>
     <row r="4" ht="18" spans="1:5">
-      <c r="A4" s="4">
-        <v>44754</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="5">
+        <v>44761</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="9"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="10"/>
     </row>
     <row r="5" ht="18" spans="1:5">
-      <c r="A5" s="4">
-        <v>44755</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="5">
+        <v>44762</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="9"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="10"/>
     </row>
     <row r="6" ht="18" spans="1:5">
-      <c r="A6" s="4">
-        <v>44756</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="5">
+        <v>44763</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="9"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="10"/>
     </row>
     <row r="7" ht="18" spans="1:5">
-      <c r="A7" s="4">
-        <v>44757</v>
-      </c>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="5">
+        <v>44764</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="9"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1810,4 +1841,146 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="123" zoomScaleNormal="123" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="6.890625" customWidth="1"/>
+    <col min="3" max="3" width="76.609375" customWidth="1"/>
+    <col min="4" max="4" width="11.9296875" customWidth="1"/>
+    <col min="5" max="5" width="36.09375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="123" customHeight="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" ht="15.2" spans="1:5">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" ht="18" spans="1:5">
+      <c r="A3" s="5">
+        <v>44767</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="10"/>
+    </row>
+    <row r="4" ht="36" spans="1:5">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" ht="36" spans="1:5">
+      <c r="A5" s="5">
+        <v>44768</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" ht="18" spans="1:5">
+      <c r="A6" s="5">
+        <v>44769</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" ht="18" spans="1:5">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" ht="14.8" spans="1:5">
+      <c r="A8" s="5">
+        <v>44770</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="10"/>
+    </row>
+    <row r="9" ht="14.8" spans="1:5">
+      <c r="A9" s="5">
+        <v>44771</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:E1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E4" r:id="rId1" display="https://wonder.atlassian.net/browse/QA-501"/>
+    <hyperlink ref="E5" r:id="rId2" display="https://wonder.atlassian.net/browse/QA-502"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/工作计划/2022/202207.xlsx
+++ b/工作计划/2022/202207.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12320" activeTab="4"/>
+    <workbookView windowWidth="28800" windowHeight="12160" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="2022-06-27" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
   <si>
     <t>目标</t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t>发布</t>
+  </si>
+  <si>
+    <t xml:space="preserve">在UI Diff Case 页面，新增模块：用来展示UI比较进度。[用websocket反向通知用户] </t>
   </si>
 </sst>
 </file>
@@ -1849,7 +1852,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="123" zoomScaleNormal="123" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1950,16 +1953,20 @@
       <c r="D7" s="8"/>
       <c r="E7" s="10"/>
     </row>
-    <row r="8" ht="14.8" spans="1:5">
+    <row r="8" ht="18" spans="1:5">
       <c r="A8" s="5">
         <v>44770</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="7"/>
+      <c r="C8" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="D8" s="8"/>
-      <c r="E8" s="10"/>
+      <c r="E8" s="11" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="9" ht="14.8" spans="1:5">
       <c r="A9" s="5">
@@ -1979,6 +1986,7 @@
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1" display="https://wonder.atlassian.net/browse/QA-501"/>
     <hyperlink ref="E5" r:id="rId2" display="https://wonder.atlassian.net/browse/QA-502"/>
+    <hyperlink ref="E8" r:id="rId2" display="https://wonder.atlassian.net/browse/QA-502"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/工作计划/2022/202207.xlsx
+++ b/工作计划/2022/202207.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12160" activeTab="4"/>
+    <workbookView windowWidth="28800" windowHeight="12320" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="2022-06-27" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
   <si>
     <t>目标</t>
   </si>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t xml:space="preserve">在UI Diff Case 页面，新增模块：用来展示UI比较进度。[用websocket反向通知用户] </t>
+  </si>
+  <si>
+    <t>https://wonder.atlassian.net/browse/QA-503</t>
   </si>
 </sst>
 </file>
@@ -152,10 +155,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -197,13 +200,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -219,10 +215,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -234,11 +255,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -251,37 +286,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,9 +300,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,17 +322,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -354,61 +357,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,19 +519,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,97 +531,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,6 +620,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -656,11 +670,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -670,15 +682,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -702,145 +705,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1852,7 +1855,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="123" zoomScaleNormal="123" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1968,16 +1971,20 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" ht="14.8" spans="1:5">
+    <row r="9" ht="18" spans="1:5">
       <c r="A9" s="5">
         <v>44771</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="7"/>
+      <c r="C9" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="D9" s="8"/>
-      <c r="E9" s="10"/>
+      <c r="E9" s="11" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1987,6 +1994,7 @@
     <hyperlink ref="E4" r:id="rId1" display="https://wonder.atlassian.net/browse/QA-501"/>
     <hyperlink ref="E5" r:id="rId2" display="https://wonder.atlassian.net/browse/QA-502"/>
     <hyperlink ref="E8" r:id="rId2" display="https://wonder.atlassian.net/browse/QA-502"/>
+    <hyperlink ref="E9" r:id="rId2" display="https://wonder.atlassian.net/browse/QA-503"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
